--- a/Excel/Form00018.xlsx
+++ b/Excel/Form00018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawile/IdeaProjects/Keydom/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjects\keydom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2A975B-94C5-6745-B8AD-0DD9F2C03F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31081765-B13E-45B3-AFBC-2854DCA1EAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="2000" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="逻辑安全内部审计、审查报告" sheetId="1" r:id="rId1"/>
@@ -349,11 +349,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">               逻辑安全内部审计/审查报告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>报告号及日期:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑安全内部审查报告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,11 +932,11 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:H20"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
@@ -948,9 +948,9 @@
     <col min="13" max="13" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42" customHeight="1">
+    <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -965,13 +965,13 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
+    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -998,7 +998,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="21.75" customHeight="1">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="44.25" customHeight="1">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="42.5" customHeight="1">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="42.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -1151,7 +1151,7 @@
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="42.5" customHeight="1">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="42.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1176,7 +1176,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="247.5" customHeight="1">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="204.75" customHeight="1">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="126.75" customHeight="1">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="105.75" customHeight="1">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>32</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="44.25" customHeight="1">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="28.25" customHeight="1">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="29" t="s">
         <v>24</v>
@@ -1278,7 +1278,7 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="28.25" customHeight="1">
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="29" t="s">
         <v>21</v>
@@ -1297,7 +1297,7 @@
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="28.25" customHeight="1">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1316,7 +1316,7 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="28.25" customHeight="1">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="7" t="s">
         <v>11</v>
@@ -1333,7 +1333,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -1348,7 +1348,7 @@
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1">
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>13</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" ht="59.25" customHeight="1">
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -1399,7 +1399,7 @@
       <c r="L26" s="33"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" ht="26.25" customHeight="1">
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" ht="19.5" customHeight="1">
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -1452,7 +1452,7 @@
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1">
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>20</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="59.25" customHeight="1">
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -1484,7 +1484,7 @@
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="26.25" customHeight="1">
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="L32" s="33"/>
       <c r="M32" s="33"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1578,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"宋体,常规"&amp;18            &amp;"宋体,加粗"四川科道芯国智能技术股份有限公司&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L编制部门:安全策略部&amp;R文件编号：JK-R-SCAQ-BD085  Rev:A4</oddFooter>
